--- a/DATA_FILES/X_TEST_EXCEL_FONT_SIZES.xlsx
+++ b/DATA_FILES/X_TEST_EXCEL_FONT_SIZES.xlsx
@@ -28,17 +28,17 @@
     <font>
       <name val="Calibri"/>
       <color rgb="00FF0000"/>
-      <sz val="10"/>
+      <sz val="50"/>
     </font>
     <font>
       <name val="Arial"/>
       <color rgb="00A52A2A"/>
-      <sz val="20"/>
+      <sz val="40"/>
     </font>
     <font>
       <name val="Tahoma"/>
       <color rgb="0000FF00"/>
-      <sz val="40"/>
+      <sz val="30"/>
     </font>
   </fonts>
   <fills count="2">
@@ -439,7 +439,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/DATA_FILES/X_TEST_EXCEL_FONT_SIZES.xlsx
+++ b/DATA_FILES/X_TEST_EXCEL_FONT_SIZES.xlsx
@@ -27,18 +27,18 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="00FF0000"/>
+      <color rgb="00800080"/>
       <sz val="50"/>
     </font>
     <font>
       <name val="Arial"/>
-      <color rgb="00A52A2A"/>
-      <sz val="40"/>
+      <color rgb="00FF0000"/>
+      <sz val="30"/>
     </font>
     <font>
       <name val="Tahoma"/>
-      <color rgb="0000FF00"/>
-      <sz val="30"/>
+      <color rgb="00A52A2A"/>
+      <sz val="40"/>
     </font>
   </fonts>
   <fills count="2">
@@ -439,27 +439,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hey There!</t>
+          <t>This is cell A1</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>from:</t>
+          <t>This is cell A2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>OpenPyXL</t>
+          <t>This is cell A3</t>
         </is>
       </c>
     </row>

--- a/DATA_FILES/X_TEST_EXCEL_FONT_SIZES.xlsx
+++ b/DATA_FILES/X_TEST_EXCEL_FONT_SIZES.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,18 +27,14 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="00800080"/>
+      <b val="1"/>
+      <color rgb="00FF0000"/>
       <sz val="50"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <color rgb="00FF0000"/>
-      <sz val="30"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <color rgb="00A52A2A"/>
-      <sz val="40"/>
+      <sz val="50"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,11 +57,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -437,29 +432,31 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="1" max="1"/>
+    <col width="2" customWidth="1" min="2" max="2"/>
+    <col width="2" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>This is cell A1</t>
+          <t>THIS IS CELL A1</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>This is cell A2</t>
+          <t>THIS IS CELL A2</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>This is cell A3</t>
+          <t>THIS IS CELL A3</t>
         </is>
       </c>
     </row>
